--- a/sheets/data.xlsx
+++ b/sheets/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\financial_history\sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2974D248-C201-440D-A539-4D2E94F292FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="75">
   <si>
     <t>ID</t>
   </si>
@@ -88,6 +82,9 @@
     <t>Clear</t>
   </si>
   <si>
+    <t>XP</t>
+  </si>
+  <si>
     <t>Trabalho</t>
   </si>
   <si>
@@ -176,6 +173,12 @@
   </si>
   <si>
     <t>Entrada Clear de Toro</t>
+  </si>
+  <si>
+    <t>Saída Toro para XP</t>
+  </si>
+  <si>
+    <t>Entrada XP de Toro</t>
   </si>
   <si>
     <t>1/15</t>
@@ -241,11 +244,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,19 +312,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -363,7 +358,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -395,27 +390,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -447,24 +424,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,29 +599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,7 +641,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -723,10 +667,10 @@
         <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -746,22 +690,22 @@
         <v>15</v>
       </c>
       <c r="G3">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -781,22 +725,22 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
@@ -816,22 +760,22 @@
         <v>15</v>
       </c>
       <c r="G5">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>2</v>
       </c>
@@ -851,22 +795,22 @@
         <v>15</v>
       </c>
       <c r="G6">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>2</v>
       </c>
@@ -886,22 +830,22 @@
         <v>15</v>
       </c>
       <c r="G7">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>2</v>
       </c>
@@ -921,22 +865,22 @@
         <v>15</v>
       </c>
       <c r="G8">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>2</v>
       </c>
@@ -956,22 +900,22 @@
         <v>15</v>
       </c>
       <c r="G9">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>2</v>
       </c>
@@ -991,22 +935,22 @@
         <v>15</v>
       </c>
       <c r="G10">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1026,22 +970,22 @@
         <v>15</v>
       </c>
       <c r="G11">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K11" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1061,22 +1005,22 @@
         <v>15</v>
       </c>
       <c r="G12">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>2</v>
       </c>
@@ -1096,22 +1040,22 @@
         <v>15</v>
       </c>
       <c r="G13">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1131,22 +1075,22 @@
         <v>15</v>
       </c>
       <c r="G14">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1166,22 +1110,22 @@
         <v>15</v>
       </c>
       <c r="G15">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1201,22 +1145,22 @@
         <v>15</v>
       </c>
       <c r="G16">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>2</v>
       </c>
@@ -1236,22 +1180,22 @@
         <v>15</v>
       </c>
       <c r="G17">
-        <v>0.66666666666666663</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="H17" t="s">
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>3</v>
       </c>
@@ -1277,13 +1221,13 @@
         <v>17</v>
       </c>
       <c r="I18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>3</v>
       </c>
@@ -1309,13 +1253,13 @@
         <v>17</v>
       </c>
       <c r="I19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1341,13 +1285,13 @@
         <v>17</v>
       </c>
       <c r="I20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>3</v>
       </c>
@@ -1373,13 +1317,13 @@
         <v>17</v>
       </c>
       <c r="I21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1405,13 +1349,13 @@
         <v>17</v>
       </c>
       <c r="I22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>3</v>
       </c>
@@ -1437,13 +1381,13 @@
         <v>17</v>
       </c>
       <c r="I23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1469,13 +1413,13 @@
         <v>17</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>3</v>
       </c>
@@ -1501,13 +1445,13 @@
         <v>17</v>
       </c>
       <c r="I25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>3</v>
       </c>
@@ -1533,13 +1477,13 @@
         <v>17</v>
       </c>
       <c r="I26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>3</v>
       </c>
@@ -1565,13 +1509,13 @@
         <v>17</v>
       </c>
       <c r="I27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1597,13 +1541,13 @@
         <v>17</v>
       </c>
       <c r="I28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>3</v>
       </c>
@@ -1629,13 +1573,13 @@
         <v>17</v>
       </c>
       <c r="I29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1661,13 +1605,13 @@
         <v>17</v>
       </c>
       <c r="I30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1693,13 +1637,13 @@
         <v>17</v>
       </c>
       <c r="I31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1725,13 +1669,13 @@
         <v>17</v>
       </c>
       <c r="I32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33">
         <v>3</v>
       </c>
@@ -1757,13 +1701,13 @@
         <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34">
         <v>3</v>
       </c>
@@ -1789,13 +1733,13 @@
         <v>17</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35">
         <v>3</v>
       </c>
@@ -1821,13 +1765,13 @@
         <v>17</v>
       </c>
       <c r="I35" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1853,13 +1797,13 @@
         <v>17</v>
       </c>
       <c r="I36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1885,13 +1829,13 @@
         <v>17</v>
       </c>
       <c r="I37" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1917,13 +1861,13 @@
         <v>17</v>
       </c>
       <c r="I38" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1949,13 +1893,13 @@
         <v>17</v>
       </c>
       <c r="I39" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1981,13 +1925,13 @@
         <v>17</v>
       </c>
       <c r="I40" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41">
         <v>3</v>
       </c>
@@ -2013,13 +1957,13 @@
         <v>17</v>
       </c>
       <c r="I41" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42">
         <v>3</v>
       </c>
@@ -2045,13 +1989,13 @@
         <v>17</v>
       </c>
       <c r="I42" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43">
         <v>3</v>
       </c>
@@ -2077,13 +2021,13 @@
         <v>17</v>
       </c>
       <c r="I43" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44">
         <v>3</v>
       </c>
@@ -2109,13 +2053,13 @@
         <v>17</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45">
         <v>3</v>
       </c>
@@ -2141,13 +2085,13 @@
         <v>17</v>
       </c>
       <c r="I45" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2173,13 +2117,13 @@
         <v>17</v>
       </c>
       <c r="I46" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47">
         <v>3</v>
       </c>
@@ -2205,13 +2149,13 @@
         <v>17</v>
       </c>
       <c r="I47" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48">
         <v>3</v>
       </c>
@@ -2237,13 +2181,13 @@
         <v>17</v>
       </c>
       <c r="I48" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49">
         <v>3</v>
       </c>
@@ -2269,13 +2213,13 @@
         <v>17</v>
       </c>
       <c r="I49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50">
         <v>3</v>
       </c>
@@ -2301,13 +2245,13 @@
         <v>17</v>
       </c>
       <c r="I50" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51">
         <v>3</v>
       </c>
@@ -2333,13 +2277,13 @@
         <v>17</v>
       </c>
       <c r="I51" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52">
         <v>3</v>
       </c>
@@ -2365,13 +2309,13 @@
         <v>17</v>
       </c>
       <c r="I52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J52" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53">
         <v>3</v>
       </c>
@@ -2397,13 +2341,13 @@
         <v>17</v>
       </c>
       <c r="I53" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54">
         <v>3</v>
       </c>
@@ -2429,13 +2373,13 @@
         <v>17</v>
       </c>
       <c r="I54" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55">
         <v>3</v>
       </c>
@@ -2461,13 +2405,13 @@
         <v>17</v>
       </c>
       <c r="I55" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56">
         <v>3</v>
       </c>
@@ -2493,13 +2437,13 @@
         <v>17</v>
       </c>
       <c r="I56" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57">
         <v>3</v>
       </c>
@@ -2525,13 +2469,13 @@
         <v>17</v>
       </c>
       <c r="I57" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58">
         <v>3</v>
       </c>
@@ -2557,13 +2501,13 @@
         <v>17</v>
       </c>
       <c r="I58" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59">
         <v>3</v>
       </c>
@@ -2589,13 +2533,13 @@
         <v>17</v>
       </c>
       <c r="I59" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60">
         <v>3</v>
       </c>
@@ -2621,13 +2565,13 @@
         <v>17</v>
       </c>
       <c r="I60" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2653,13 +2597,13 @@
         <v>17</v>
       </c>
       <c r="I61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62">
         <v>3</v>
       </c>
@@ -2685,13 +2629,13 @@
         <v>17</v>
       </c>
       <c r="I62" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63">
         <v>3</v>
       </c>
@@ -2717,13 +2661,13 @@
         <v>17</v>
       </c>
       <c r="I63" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64">
         <v>3</v>
       </c>
@@ -2749,13 +2693,13 @@
         <v>17</v>
       </c>
       <c r="I64" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>3</v>
       </c>
@@ -2781,13 +2725,13 @@
         <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>3</v>
       </c>
@@ -2813,13 +2757,13 @@
         <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>3</v>
       </c>
@@ -2845,13 +2789,13 @@
         <v>17</v>
       </c>
       <c r="I67" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>3</v>
       </c>
@@ -2877,13 +2821,13 @@
         <v>17</v>
       </c>
       <c r="I68" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>3</v>
       </c>
@@ -2909,13 +2853,13 @@
         <v>17</v>
       </c>
       <c r="I69" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>3</v>
       </c>
@@ -2941,13 +2885,13 @@
         <v>17</v>
       </c>
       <c r="I70" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2973,13 +2917,13 @@
         <v>17</v>
       </c>
       <c r="I71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>3</v>
       </c>
@@ -3005,13 +2949,13 @@
         <v>17</v>
       </c>
       <c r="I72" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>3</v>
       </c>
@@ -3037,13 +2981,13 @@
         <v>17</v>
       </c>
       <c r="I73" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>3</v>
       </c>
@@ -3069,13 +3013,13 @@
         <v>17</v>
       </c>
       <c r="I74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>3</v>
       </c>
@@ -3101,13 +3045,13 @@
         <v>17</v>
       </c>
       <c r="I75" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>3</v>
       </c>
@@ -3133,13 +3077,13 @@
         <v>17</v>
       </c>
       <c r="I76" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>3</v>
       </c>
@@ -3165,13 +3109,13 @@
         <v>17</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>4</v>
       </c>
@@ -3197,13 +3141,13 @@
         <v>19</v>
       </c>
       <c r="I78" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>5</v>
       </c>
@@ -3229,16 +3173,16 @@
         <v>17</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>5</v>
       </c>
@@ -3264,16 +3208,16 @@
         <v>17</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J80" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K80" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81">
         <v>5</v>
       </c>
@@ -3299,16 +3243,16 @@
         <v>17</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K81" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82">
         <v>5</v>
       </c>
@@ -3334,16 +3278,16 @@
         <v>17</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K82" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83">
         <v>5</v>
       </c>
@@ -3369,16 +3313,16 @@
         <v>17</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J83" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K83" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84">
         <v>6</v>
       </c>
@@ -3404,13 +3348,13 @@
         <v>17</v>
       </c>
       <c r="I84" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85">
         <v>6</v>
       </c>
@@ -3436,13 +3380,13 @@
         <v>17</v>
       </c>
       <c r="I85" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86">
         <v>6</v>
       </c>
@@ -3468,13 +3412,13 @@
         <v>17</v>
       </c>
       <c r="I86" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87">
         <v>6</v>
       </c>
@@ -3500,13 +3444,13 @@
         <v>17</v>
       </c>
       <c r="I87" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88">
         <v>6</v>
       </c>
@@ -3532,13 +3476,13 @@
         <v>17</v>
       </c>
       <c r="I88" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89">
         <v>6</v>
       </c>
@@ -3564,13 +3508,13 @@
         <v>17</v>
       </c>
       <c r="I89" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90">
         <v>6</v>
       </c>
@@ -3596,13 +3540,13 @@
         <v>17</v>
       </c>
       <c r="I90" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91">
         <v>6</v>
       </c>
@@ -3628,13 +3572,13 @@
         <v>17</v>
       </c>
       <c r="I91" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92">
         <v>6</v>
       </c>
@@ -3660,13 +3604,13 @@
         <v>17</v>
       </c>
       <c r="I92" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93">
         <v>6</v>
       </c>
@@ -3692,13 +3636,13 @@
         <v>17</v>
       </c>
       <c r="I93" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94">
         <v>6</v>
       </c>
@@ -3724,13 +3668,13 @@
         <v>17</v>
       </c>
       <c r="I94" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95">
         <v>6</v>
       </c>
@@ -3756,13 +3700,13 @@
         <v>17</v>
       </c>
       <c r="I95" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96">
         <v>6</v>
       </c>
@@ -3788,13 +3732,13 @@
         <v>17</v>
       </c>
       <c r="I96" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>6</v>
       </c>
@@ -3820,13 +3764,13 @@
         <v>17</v>
       </c>
       <c r="I97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>6</v>
       </c>
@@ -3852,13 +3796,13 @@
         <v>17</v>
       </c>
       <c r="I98" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>6</v>
       </c>
@@ -3884,13 +3828,13 @@
         <v>17</v>
       </c>
       <c r="I99" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>6</v>
       </c>
@@ -3916,13 +3860,13 @@
         <v>17</v>
       </c>
       <c r="I100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101">
         <v>6</v>
       </c>
@@ -3948,13 +3892,13 @@
         <v>17</v>
       </c>
       <c r="I101" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102">
         <v>6</v>
       </c>
@@ -3980,13 +3924,13 @@
         <v>17</v>
       </c>
       <c r="I102" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103">
         <v>6</v>
       </c>
@@ -4012,13 +3956,13 @@
         <v>17</v>
       </c>
       <c r="I103" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104">
         <v>6</v>
       </c>
@@ -4044,13 +3988,13 @@
         <v>17</v>
       </c>
       <c r="I104" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105">
         <v>6</v>
       </c>
@@ -4076,13 +4020,13 @@
         <v>17</v>
       </c>
       <c r="I105" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106">
         <v>6</v>
       </c>
@@ -4108,13 +4052,13 @@
         <v>17</v>
       </c>
       <c r="I106" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107">
         <v>6</v>
       </c>
@@ -4140,13 +4084,13 @@
         <v>17</v>
       </c>
       <c r="I107" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108">
         <v>6</v>
       </c>
@@ -4172,13 +4116,13 @@
         <v>17</v>
       </c>
       <c r="I108" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109">
         <v>6</v>
       </c>
@@ -4204,13 +4148,13 @@
         <v>17</v>
       </c>
       <c r="I109" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110">
         <v>6</v>
       </c>
@@ -4236,13 +4180,13 @@
         <v>17</v>
       </c>
       <c r="I110" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111">
         <v>6</v>
       </c>
@@ -4268,13 +4212,13 @@
         <v>17</v>
       </c>
       <c r="I111" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112">
         <v>6</v>
       </c>
@@ -4300,13 +4244,13 @@
         <v>17</v>
       </c>
       <c r="I112" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113">
         <v>6</v>
       </c>
@@ -4332,13 +4276,13 @@
         <v>17</v>
       </c>
       <c r="I113" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114">
         <v>6</v>
       </c>
@@ -4364,13 +4308,13 @@
         <v>17</v>
       </c>
       <c r="I114" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J114" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115">
         <v>6</v>
       </c>
@@ -4396,13 +4340,13 @@
         <v>17</v>
       </c>
       <c r="I115" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116">
         <v>6</v>
       </c>
@@ -4428,13 +4372,13 @@
         <v>17</v>
       </c>
       <c r="I116" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117">
         <v>6</v>
       </c>
@@ -4460,13 +4404,13 @@
         <v>17</v>
       </c>
       <c r="I117" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118">
         <v>6</v>
       </c>
@@ -4492,13 +4436,13 @@
         <v>17</v>
       </c>
       <c r="I118" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119">
         <v>6</v>
       </c>
@@ -4524,13 +4468,13 @@
         <v>17</v>
       </c>
       <c r="I119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120">
         <v>6</v>
       </c>
@@ -4556,13 +4500,13 @@
         <v>17</v>
       </c>
       <c r="I120" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121">
         <v>6</v>
       </c>
@@ -4588,13 +4532,13 @@
         <v>17</v>
       </c>
       <c r="I121" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122">
         <v>6</v>
       </c>
@@ -4620,13 +4564,13 @@
         <v>17</v>
       </c>
       <c r="I122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123">
         <v>6</v>
       </c>
@@ -4652,13 +4596,13 @@
         <v>17</v>
       </c>
       <c r="I123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124">
         <v>6</v>
       </c>
@@ -4684,13 +4628,13 @@
         <v>17</v>
       </c>
       <c r="I124" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125">
         <v>6</v>
       </c>
@@ -4716,13 +4660,13 @@
         <v>17</v>
       </c>
       <c r="I125" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126">
         <v>6</v>
       </c>
@@ -4748,13 +4692,13 @@
         <v>17</v>
       </c>
       <c r="I126" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127">
         <v>6</v>
       </c>
@@ -4780,13 +4724,13 @@
         <v>17</v>
       </c>
       <c r="I127" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128">
         <v>6</v>
       </c>
@@ -4812,13 +4756,13 @@
         <v>17</v>
       </c>
       <c r="I128" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J128" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129">
         <v>6</v>
       </c>
@@ -4844,13 +4788,13 @@
         <v>17</v>
       </c>
       <c r="I129" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J129" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130">
         <v>6</v>
       </c>
@@ -4876,13 +4820,13 @@
         <v>17</v>
       </c>
       <c r="I130" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J130" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131">
         <v>6</v>
       </c>
@@ -4908,13 +4852,13 @@
         <v>17</v>
       </c>
       <c r="I131" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J131" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132">
         <v>6</v>
       </c>
@@ -4940,13 +4884,13 @@
         <v>17</v>
       </c>
       <c r="I132" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J132" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133">
         <v>6</v>
       </c>
@@ -4972,13 +4916,13 @@
         <v>17</v>
       </c>
       <c r="I133" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J133" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134">
         <v>6</v>
       </c>
@@ -5004,13 +4948,13 @@
         <v>17</v>
       </c>
       <c r="I134" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J134" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135">
         <v>6</v>
       </c>
@@ -5036,13 +4980,13 @@
         <v>17</v>
       </c>
       <c r="I135" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J135" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136">
         <v>6</v>
       </c>
@@ -5068,13 +5012,13 @@
         <v>17</v>
       </c>
       <c r="I136" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J136" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137">
         <v>6</v>
       </c>
@@ -5100,13 +5044,13 @@
         <v>17</v>
       </c>
       <c r="I137" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J137" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138">
         <v>6</v>
       </c>
@@ -5132,13 +5076,13 @@
         <v>17</v>
       </c>
       <c r="I138" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J138" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139">
         <v>6</v>
       </c>
@@ -5164,13 +5108,13 @@
         <v>17</v>
       </c>
       <c r="I139" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J139" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140">
         <v>6</v>
       </c>
@@ -5196,13 +5140,13 @@
         <v>17</v>
       </c>
       <c r="I140" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J140" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141">
         <v>6</v>
       </c>
@@ -5228,13 +5172,13 @@
         <v>17</v>
       </c>
       <c r="I141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J141" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142">
         <v>6</v>
       </c>
@@ -5260,13 +5204,13 @@
         <v>17</v>
       </c>
       <c r="I142" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J142" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143">
         <v>6</v>
       </c>
@@ -5292,13 +5236,13 @@
         <v>17</v>
       </c>
       <c r="I143" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J143" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144">
         <v>7</v>
       </c>
@@ -5327,10 +5271,10 @@
         <v>13</v>
       </c>
       <c r="J144" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145">
         <v>7</v>
       </c>
@@ -5356,7 +5300,71 @@
         <v>21</v>
       </c>
       <c r="J145" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2">
+        <v>44362</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D146" s="2">
+        <v>44362</v>
+      </c>
+      <c r="E146" t="s">
+        <v>13</v>
+      </c>
+      <c r="F146" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146">
+        <v>-4125</v>
+      </c>
+      <c r="H146" t="s">
+        <v>20</v>
+      </c>
+      <c r="I146" t="s">
+        <v>13</v>
+      </c>
+      <c r="J146" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147">
+        <v>8</v>
+      </c>
+      <c r="B147" s="2">
+        <v>44362</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44362</v>
+      </c>
+      <c r="D147" s="2">
+        <v>44362</v>
+      </c>
+      <c r="E147" t="s">
+        <v>13</v>
+      </c>
+      <c r="F147" t="s">
+        <v>14</v>
+      </c>
+      <c r="G147">
+        <v>4125</v>
+      </c>
+      <c r="H147" t="s">
+        <v>22</v>
+      </c>
+      <c r="I147" t="s">
+        <v>13</v>
+      </c>
+      <c r="J147" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/data.xlsx
+++ b/sheets/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t>ID</t>
   </si>
@@ -52,85 +52,61 @@
     <t>Saída</t>
   </si>
   <si>
+    <t>Entrada</t>
+  </si>
+  <si>
     <t>Múltipla Temporária</t>
   </si>
   <si>
+    <t>Antecipamento</t>
+  </si>
+  <si>
     <t>Nubank</t>
   </si>
   <si>
-    <t>Lazer</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 1)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 2)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 3)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 4)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 5)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 6)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 7)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 8)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 9)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 10)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 11)</t>
-  </si>
-  <si>
-    <t>tapete e rolo pilates(PARCELA 12)</t>
-  </si>
-  <si>
-    <t>1/12</t>
-  </si>
-  <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>3/12</t>
-  </si>
-  <si>
-    <t>4/12</t>
-  </si>
-  <si>
-    <t>5/12</t>
-  </si>
-  <si>
-    <t>6/12</t>
-  </si>
-  <si>
-    <t>7/12</t>
-  </si>
-  <si>
-    <t>8/12</t>
-  </si>
-  <si>
-    <t>9/12</t>
-  </si>
-  <si>
-    <t>10/12</t>
-  </si>
-  <si>
-    <t>11/12</t>
-  </si>
-  <si>
-    <t>12/12</t>
+    <t>Gasolina</t>
+  </si>
+  <si>
+    <t>(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>(PARCELA 3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconto provindo de antecipação da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 10 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 9 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 8 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 7 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 6 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 5 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 4 antecipada da movimentação 0 - </t>
+  </si>
+  <si>
+    <t>1/10</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>3/10</t>
   </si>
 </sst>
 </file>
@@ -492,7 +468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,31 +517,31 @@
         <v>44364</v>
       </c>
       <c r="C2" s="2">
-        <v>44291</v>
+        <v>44321</v>
       </c>
       <c r="D2" s="2">
-        <v>44287</v>
+        <v>44296</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -576,31 +552,31 @@
         <v>44364</v>
       </c>
       <c r="C3" s="2">
-        <v>44321</v>
+        <v>44352</v>
       </c>
       <c r="D3" s="2">
-        <v>44287</v>
+        <v>44296</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -611,36 +587,36 @@
         <v>44364</v>
       </c>
       <c r="C4" s="2">
-        <v>44352</v>
+        <v>44382</v>
       </c>
       <c r="D4" s="2">
-        <v>44287</v>
+        <v>44296</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2">
         <v>44364</v>
@@ -649,308 +625,249 @@
         <v>44382</v>
       </c>
       <c r="D5" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G5">
-        <v>-20.44416666666667</v>
+        <v>1.66</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2">
         <v>44364</v>
       </c>
       <c r="C6" s="2">
-        <v>44413</v>
+        <v>44382</v>
       </c>
       <c r="D6" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G6">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2">
         <v>44364</v>
       </c>
       <c r="C7" s="2">
-        <v>44444</v>
+        <v>44382</v>
       </c>
       <c r="D7" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G7">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="2">
         <v>44364</v>
       </c>
       <c r="C8" s="2">
-        <v>44474</v>
+        <v>44382</v>
       </c>
       <c r="D8" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B9" s="2">
         <v>44364</v>
       </c>
       <c r="C9" s="2">
-        <v>44505</v>
+        <v>44382</v>
       </c>
       <c r="D9" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G9">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
-      </c>
-      <c r="K9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2">
         <v>44364</v>
       </c>
       <c r="C10" s="2">
-        <v>44535</v>
+        <v>44382</v>
       </c>
       <c r="D10" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G10">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>23</v>
-      </c>
-      <c r="K10" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2">
         <v>44364</v>
       </c>
       <c r="C11" s="2">
-        <v>44566</v>
+        <v>44382</v>
       </c>
       <c r="D11" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J11" t="s">
-        <v>24</v>
-      </c>
-      <c r="K11" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2">
         <v>44364</v>
       </c>
       <c r="C12" s="2">
-        <v>44597</v>
+        <v>44382</v>
       </c>
       <c r="D12" s="2">
-        <v>44287</v>
+        <v>44382</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G12">
-        <v>-20.44416666666667</v>
+        <v>-10</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J12" t="s">
-        <v>25</v>
-      </c>
-      <c r="K12" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13">
-        <v>0</v>
-      </c>
-      <c r="B13" s="2">
-        <v>44364</v>
-      </c>
-      <c r="C13" s="2">
-        <v>44625</v>
-      </c>
-      <c r="D13" s="2">
-        <v>44287</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13">
-        <v>-20.44416666666667</v>
-      </c>
-      <c r="H13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I13" t="s">
-        <v>14</v>
-      </c>
-      <c r="J13" t="s">
-        <v>26</v>
-      </c>
-      <c r="K13" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/data.xlsx
+++ b/sheets/data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="137">
   <si>
     <t>ID</t>
   </si>
@@ -49,10 +49,16 @@
     <t>Parcelamento</t>
   </si>
   <si>
+    <t>Entrada</t>
+  </si>
+  <si>
+    <t>Transferência</t>
+  </si>
+  <si>
     <t>Saída</t>
   </si>
   <si>
-    <t>Entrada</t>
+    <t>Singular</t>
   </si>
   <si>
     <t>Múltipla Temporária</t>
@@ -61,52 +67,364 @@
     <t>Antecipamento</t>
   </si>
   <si>
+    <t>Múltipla Permanente</t>
+  </si>
+  <si>
     <t>Nubank</t>
   </si>
   <si>
-    <t>Gasolina</t>
-  </si>
-  <si>
-    <t>(PARCELA 1)</t>
-  </si>
-  <si>
-    <t>(PARCELA 2)</t>
-  </si>
-  <si>
-    <t>(PARCELA 3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desconto provindo de antecipação da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 10 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 9 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 8 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 7 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 6 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 5 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parcela 4 antecipada da movimentação 0 - </t>
-  </si>
-  <si>
-    <t>1/10</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>3/10</t>
+    <t>Toro</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>Alimentação</t>
+  </si>
+  <si>
+    <t>Presentes</t>
+  </si>
+  <si>
+    <t>Repasse</t>
+  </si>
+  <si>
+    <t>Saúde</t>
+  </si>
+  <si>
+    <t>Saldo pré controle</t>
+  </si>
+  <si>
+    <t>Repasse da Mor</t>
+  </si>
+  <si>
+    <t>Primeiro vale da Nelo</t>
+  </si>
+  <si>
+    <t>Saída Nubank para Toro</t>
+  </si>
+  <si>
+    <t>Entrada Toro de Nubank</t>
+  </si>
+  <si>
+    <t>Resíduo Prolec</t>
+  </si>
+  <si>
+    <t>Primeiro saque Enjoei</t>
+  </si>
+  <si>
+    <t>Segundo saque Enjoei</t>
+  </si>
+  <si>
+    <t>Prime sushi</t>
+  </si>
+  <si>
+    <t>Frete das fotos</t>
+  </si>
+  <si>
+    <t>Primeiro café no Alban</t>
+  </si>
+  <si>
+    <t>Almoço com a Mor na Fragata</t>
+  </si>
+  <si>
+    <t>Café com a Mor no Alban</t>
+  </si>
+  <si>
+    <t>iCloud</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>iPhone da Mor(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>Repasse iPhone da Mor(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>Fotos(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>Fotos(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>Fotos(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>Chopp artesanal Morro Reuter</t>
+  </si>
+  <si>
+    <t>Cafe colonial Walachay</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>Presente da mãe(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 7)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 8)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 9)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 10)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 11)</t>
+  </si>
+  <si>
+    <t>Tapete e rolo pilates(PARCELA 12)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desconto provindo de antecipação da movimentação 24 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 11 antecipada da movimentação 24 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 10 antecipada da movimentação 24 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 9 antecipada da movimentação 24 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 8 antecipada da movimentação 24 - </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parcela 7 antecipada da movimentação 24 - </t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 7)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 8)</t>
+  </si>
+  <si>
+    <t>Armário da mor(PARCELA 9)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 1)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 2)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 3)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 4)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 5)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 6)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 7)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 8)</t>
+  </si>
+  <si>
+    <t>REPASSE: Armário da mor(PARCELA 9)</t>
+  </si>
+  <si>
+    <t>Salário Nelo</t>
+  </si>
+  <si>
+    <t>1/6</t>
+  </si>
+  <si>
+    <t>2/6</t>
+  </si>
+  <si>
+    <t>3/6</t>
+  </si>
+  <si>
+    <t>4/6</t>
+  </si>
+  <si>
+    <t>5/6</t>
+  </si>
+  <si>
+    <t>6/6</t>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>3/3</t>
+  </si>
+  <si>
+    <t>1/11</t>
+  </si>
+  <si>
+    <t>2/11</t>
+  </si>
+  <si>
+    <t>3/11</t>
+  </si>
+  <si>
+    <t>4/11</t>
+  </si>
+  <si>
+    <t>5/11</t>
+  </si>
+  <si>
+    <t>6/11</t>
+  </si>
+  <si>
+    <t>1/12</t>
+  </si>
+  <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>3/12</t>
+  </si>
+  <si>
+    <t>4/12</t>
+  </si>
+  <si>
+    <t>5/12</t>
+  </si>
+  <si>
+    <t>6/12</t>
+  </si>
+  <si>
+    <t>7/12</t>
+  </si>
+  <si>
+    <t>8/12</t>
+  </si>
+  <si>
+    <t>9/12</t>
+  </si>
+  <si>
+    <t>10/12</t>
+  </si>
+  <si>
+    <t>11/12</t>
+  </si>
+  <si>
+    <t>12/12</t>
+  </si>
+  <si>
+    <t>1/9</t>
+  </si>
+  <si>
+    <t>2/9</t>
+  </si>
+  <si>
+    <t>3/9</t>
+  </si>
+  <si>
+    <t>4/9</t>
+  </si>
+  <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>6/9</t>
+  </si>
+  <si>
+    <t>7/9</t>
+  </si>
+  <si>
+    <t>8/9</t>
+  </si>
+  <si>
+    <t>9/9</t>
   </si>
 </sst>
 </file>
@@ -468,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,118 +832,109 @@
         <v>0</v>
       </c>
       <c r="B2" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C2" s="2">
-        <v>44321</v>
+        <v>44348</v>
       </c>
       <c r="D2" s="2">
-        <v>44296</v>
+        <v>44348</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2">
-        <v>-10</v>
+        <v>650.53</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C3" s="2">
-        <v>44352</v>
+        <v>44348</v>
       </c>
       <c r="D3" s="2">
-        <v>44296</v>
+        <v>44348</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3">
-        <v>-10</v>
+        <v>26.9</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C4" s="2">
-        <v>44382</v>
+        <v>44348</v>
       </c>
       <c r="D4" s="2">
-        <v>44296</v>
+        <v>44348</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4">
-        <v>-10</v>
+        <v>525</v>
       </c>
       <c r="H4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C5" s="2">
-        <v>44382</v>
+        <v>44356</v>
       </c>
       <c r="D5" s="2">
-        <v>44382</v>
+        <v>44356</v>
       </c>
       <c r="E5" t="s">
         <v>12</v>
@@ -634,62 +943,62 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>1.66</v>
+        <v>-933.1799999999999</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C6" s="2">
-        <v>44382</v>
+        <v>44356</v>
       </c>
       <c r="D6" s="2">
-        <v>44382</v>
+        <v>44356</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
         <v>14</v>
       </c>
       <c r="G6">
-        <v>-10</v>
+        <v>933.1799999999999</v>
       </c>
       <c r="H6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C7" s="2">
-        <v>44382</v>
+        <v>44357</v>
       </c>
       <c r="D7" s="2">
-        <v>44382</v>
+        <v>44357</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -698,30 +1007,30 @@
         <v>14</v>
       </c>
       <c r="G7">
-        <v>-10</v>
+        <v>42.23</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C8" s="2">
-        <v>44382</v>
+        <v>44358</v>
       </c>
       <c r="D8" s="2">
-        <v>44382</v>
+        <v>44358</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
@@ -730,30 +1039,30 @@
         <v>14</v>
       </c>
       <c r="G8">
-        <v>-10</v>
+        <v>33.85</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B9" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C9" s="2">
         <v>44364</v>
       </c>
-      <c r="C9" s="2">
-        <v>44382</v>
-      </c>
       <c r="D9" s="2">
-        <v>44382</v>
+        <v>44364</v>
       </c>
       <c r="E9" t="s">
         <v>11</v>
@@ -762,112 +1071,3081 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>-10</v>
+        <v>326.47</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="J9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C10" s="2">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="D10" s="2">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10">
-        <v>-10</v>
+        <v>-402.57</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C11" s="2">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="D11" s="2">
-        <v>44382</v>
+        <v>44365</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11">
-        <v>-10</v>
+        <v>402.57</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="I11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B12" s="2">
-        <v>44364</v>
+        <v>44366</v>
       </c>
       <c r="C12" s="2">
         <v>44382</v>
       </c>
       <c r="D12" s="2">
-        <v>44382</v>
+        <v>44349</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F12" t="s">
         <v>14</v>
       </c>
       <c r="G12">
-        <v>-10</v>
+        <v>-45</v>
       </c>
       <c r="H12" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13">
+        <v>-47.99</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44351</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14">
+        <v>-62.5</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15">
+        <v>-70.8</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44359</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16">
+        <v>-27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17">
+        <v>-10.9</v>
+      </c>
+      <c r="H17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E18" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18">
+        <v>-26.9</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19">
+        <v>-26.9</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E20" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>-26.9</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>17</v>
+      </c>
+      <c r="B21" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21">
+        <v>-26.9</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22">
+        <v>-26.9</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+      <c r="K22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>17</v>
+      </c>
+      <c r="B23" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23">
+        <v>-26.9</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E24" t="s">
+        <v>11</v>
+      </c>
+      <c r="F24" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24">
+        <v>26.9</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D25" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25">
+        <v>26.9</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+      <c r="K25" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26">
+        <v>26.9</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27">
+        <v>18</v>
+      </c>
+      <c r="B27" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C27" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D27" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>26.9</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" t="s">
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+      <c r="K27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28">
+        <v>18</v>
+      </c>
+      <c r="B28" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C28" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D28" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>15</v>
+      </c>
+      <c r="G28">
+        <v>26.9</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29">
+        <v>18</v>
+      </c>
+      <c r="B29" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C29" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D29" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29">
+        <v>26.9</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+      <c r="K29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C30" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D30" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G30">
+        <v>-63.3</v>
+      </c>
+      <c r="H30" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+      <c r="K30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31">
+        <v>19</v>
+      </c>
+      <c r="B31" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C31" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D31" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E31" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31">
+        <v>-63.3</v>
+      </c>
+      <c r="H31" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+      <c r="K31" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32">
+        <v>19</v>
+      </c>
+      <c r="B32" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C32" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D32" s="2">
+        <v>44349</v>
+      </c>
+      <c r="E32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32">
+        <v>-63.3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+      <c r="K32" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33">
+        <v>22</v>
+      </c>
+      <c r="B33" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C33" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D33" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>-48</v>
+      </c>
+      <c r="H33" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" t="s">
+        <v>23</v>
+      </c>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34">
+        <v>23</v>
+      </c>
+      <c r="B34" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C34" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D34" s="2">
+        <v>44366</v>
+      </c>
+      <c r="E34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>-90</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>23</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35">
+        <v>24</v>
+      </c>
+      <c r="B35" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C35" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D35" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E35" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35">
+        <v>-10.75</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+      <c r="K35" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36">
+        <v>24</v>
+      </c>
+      <c r="B36" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C36" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D36" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36">
+        <v>-10.75</v>
+      </c>
+      <c r="H36" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+      <c r="K36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37">
+        <v>24</v>
+      </c>
+      <c r="B37" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C37" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D37" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E37" t="s">
+        <v>13</v>
+      </c>
+      <c r="F37" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37">
+        <v>-10.75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+      <c r="K37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38">
+        <v>24</v>
+      </c>
+      <c r="B38" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C38" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D38" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E38" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38">
+        <v>-10.75</v>
+      </c>
+      <c r="H38" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39">
+        <v>24</v>
+      </c>
+      <c r="B39" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C39" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D39" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E39" t="s">
+        <v>13</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>-10.75</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+      <c r="K39" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C40" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D40" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E40" t="s">
+        <v>13</v>
+      </c>
+      <c r="F40" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40">
+        <v>-10.75</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+      <c r="K40" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C41" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D41" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E41" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" t="s">
+        <v>15</v>
+      </c>
+      <c r="G41">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H41" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" t="s">
+        <v>26</v>
+      </c>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+      <c r="K41" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42">
+        <v>25</v>
+      </c>
+      <c r="B42" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C42" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D42" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E42" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>15</v>
+      </c>
+      <c r="G42">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H42" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" t="s">
+        <v>26</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K42" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43">
+        <v>25</v>
+      </c>
+      <c r="B43" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C43" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D43" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E43" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" t="s">
+        <v>15</v>
+      </c>
+      <c r="G43">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H43" t="s">
+        <v>18</v>
+      </c>
+      <c r="I43" t="s">
+        <v>26</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+      <c r="K43" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44">
+        <v>25</v>
+      </c>
+      <c r="B44" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C44" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D44" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E44" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G44">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H44" t="s">
+        <v>18</v>
+      </c>
+      <c r="I44" t="s">
+        <v>26</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45">
+        <v>25</v>
+      </c>
+      <c r="B45" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D45" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E45" t="s">
+        <v>13</v>
+      </c>
+      <c r="F45" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
+      </c>
+      <c r="I45" t="s">
+        <v>26</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+      <c r="K45" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46">
+        <v>25</v>
+      </c>
+      <c r="B46" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C46" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D46" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E46" t="s">
+        <v>13</v>
+      </c>
+      <c r="F46" t="s">
+        <v>15</v>
+      </c>
+      <c r="G46">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
+      </c>
+      <c r="I46" t="s">
+        <v>26</v>
+      </c>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+      <c r="K46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47">
+        <v>25</v>
+      </c>
+      <c r="B47" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C47" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D47" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+      <c r="G47">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H47" t="s">
+        <v>18</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+      <c r="K47" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48">
+        <v>25</v>
+      </c>
+      <c r="B48" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C48" s="2">
+        <v>44597</v>
+      </c>
+      <c r="D48" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E48" t="s">
+        <v>13</v>
+      </c>
+      <c r="F48" t="s">
+        <v>15</v>
+      </c>
+      <c r="G48">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H48" t="s">
+        <v>18</v>
+      </c>
+      <c r="I48" t="s">
+        <v>26</v>
+      </c>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+      <c r="K48" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49">
+        <v>25</v>
+      </c>
+      <c r="B49" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44625</v>
+      </c>
+      <c r="D49" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E49" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" t="s">
+        <v>15</v>
+      </c>
+      <c r="G49">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>26</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+      <c r="K49" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50">
+        <v>25</v>
+      </c>
+      <c r="B50" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C50" s="2">
+        <v>44656</v>
+      </c>
+      <c r="D50" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E50" t="s">
+        <v>13</v>
+      </c>
+      <c r="F50" t="s">
+        <v>15</v>
+      </c>
+      <c r="G50">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>26</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+      <c r="K50" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51">
+        <v>25</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C51" s="2">
+        <v>44686</v>
+      </c>
+      <c r="D51" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E51" t="s">
+        <v>13</v>
+      </c>
+      <c r="F51" t="s">
+        <v>15</v>
+      </c>
+      <c r="G51">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>26</v>
+      </c>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C52" s="2">
+        <v>44717</v>
+      </c>
+      <c r="D52" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" t="s">
+        <v>15</v>
+      </c>
+      <c r="G52">
+        <v>-20.48166666666667</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>26</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+      <c r="K52" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53">
+        <v>26</v>
+      </c>
+      <c r="B53" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C53" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D53" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E53" t="s">
+        <v>11</v>
+      </c>
+      <c r="F53" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
+      <c r="G53">
+        <v>0.95</v>
+      </c>
+      <c r="H53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C54" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D54" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E54" t="s">
+        <v>13</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54">
+        <v>-10.75</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>26</v>
+      </c>
+      <c r="B55" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C55" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D55" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E55" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55">
+        <v>-10.75</v>
+      </c>
+      <c r="H55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>26</v>
+      </c>
+      <c r="B56" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C56" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D56" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E56" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56">
+        <v>-10.75</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>26</v>
+      </c>
+      <c r="B57" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C57" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D57" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E57" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57">
+        <v>-10.75</v>
+      </c>
+      <c r="H57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>26</v>
+      </c>
+      <c r="B58" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C58" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D58" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E58" t="s">
+        <v>13</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58">
+        <v>-10.75</v>
+      </c>
+      <c r="H58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
         <v>27</v>
+      </c>
+      <c r="B59" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C59" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D59" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E59" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" t="s">
+        <v>15</v>
+      </c>
+      <c r="G59">
+        <v>-164.9</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+      <c r="K59" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>27</v>
+      </c>
+      <c r="B60" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C60" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D60" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E60" t="s">
+        <v>13</v>
+      </c>
+      <c r="F60" t="s">
+        <v>15</v>
+      </c>
+      <c r="G60">
+        <v>-164.9</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>83</v>
+      </c>
+      <c r="K60" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>27</v>
+      </c>
+      <c r="B61" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C61" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D61" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>-164.9</v>
+      </c>
+      <c r="H61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+      <c r="K61" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>27</v>
+      </c>
+      <c r="B62" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C62" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D62" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62">
+        <v>-164.9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+      <c r="K62" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>27</v>
+      </c>
+      <c r="B63" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C63" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D63" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>15</v>
+      </c>
+      <c r="G63">
+        <v>-164.9</v>
+      </c>
+      <c r="H63" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" t="s">
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+      <c r="K63" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>27</v>
+      </c>
+      <c r="B64" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C64" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D64" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>15</v>
+      </c>
+      <c r="G64">
+        <v>-164.9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" t="s">
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>87</v>
+      </c>
+      <c r="K64" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>27</v>
+      </c>
+      <c r="B65" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C65" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D65" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>15</v>
+      </c>
+      <c r="G65">
+        <v>-164.9</v>
+      </c>
+      <c r="H65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I65" t="s">
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>88</v>
+      </c>
+      <c r="K65" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>27</v>
+      </c>
+      <c r="B66" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C66" s="2">
+        <v>44597</v>
+      </c>
+      <c r="D66" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66">
+        <v>-164.9</v>
+      </c>
+      <c r="H66" t="s">
+        <v>18</v>
+      </c>
+      <c r="I66" t="s">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>89</v>
+      </c>
+      <c r="K66" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>27</v>
+      </c>
+      <c r="B67" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C67" s="2">
+        <v>44625</v>
+      </c>
+      <c r="D67" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E67" t="s">
+        <v>13</v>
+      </c>
+      <c r="F67" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67">
+        <v>-164.9</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+      <c r="K67" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>28</v>
+      </c>
+      <c r="B68" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C68" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D68" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+      <c r="F68" t="s">
+        <v>15</v>
+      </c>
+      <c r="G68">
+        <v>164.9</v>
+      </c>
+      <c r="H68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>91</v>
+      </c>
+      <c r="K68" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>28</v>
+      </c>
+      <c r="B69" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C69" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D69" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69">
+        <v>164.9</v>
+      </c>
+      <c r="H69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>92</v>
+      </c>
+      <c r="K69" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>28</v>
+      </c>
+      <c r="B70" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C70" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D70" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
+      </c>
+      <c r="F70" t="s">
+        <v>15</v>
+      </c>
+      <c r="G70">
+        <v>164.9</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>93</v>
+      </c>
+      <c r="K70" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>28</v>
+      </c>
+      <c r="B71" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C71" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D71" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E71" t="s">
+        <v>11</v>
+      </c>
+      <c r="F71" t="s">
+        <v>15</v>
+      </c>
+      <c r="G71">
+        <v>164.9</v>
+      </c>
+      <c r="H71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>94</v>
+      </c>
+      <c r="K71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>28</v>
+      </c>
+      <c r="B72" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C72" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D72" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E72" t="s">
+        <v>11</v>
+      </c>
+      <c r="F72" t="s">
+        <v>15</v>
+      </c>
+      <c r="G72">
+        <v>164.9</v>
+      </c>
+      <c r="H72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>95</v>
+      </c>
+      <c r="K72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>28</v>
+      </c>
+      <c r="B73" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C73" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D73" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E73" t="s">
+        <v>11</v>
+      </c>
+      <c r="F73" t="s">
+        <v>15</v>
+      </c>
+      <c r="G73">
+        <v>164.9</v>
+      </c>
+      <c r="H73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>96</v>
+      </c>
+      <c r="K73" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>28</v>
+      </c>
+      <c r="B74" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C74" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D74" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74" t="s">
+        <v>15</v>
+      </c>
+      <c r="G74">
+        <v>164.9</v>
+      </c>
+      <c r="H74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K74" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>28</v>
+      </c>
+      <c r="B75" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C75" s="2">
+        <v>44597</v>
+      </c>
+      <c r="D75" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E75" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" t="s">
+        <v>15</v>
+      </c>
+      <c r="G75">
+        <v>164.9</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>98</v>
+      </c>
+      <c r="K75" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>28</v>
+      </c>
+      <c r="B76" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C76" s="2">
+        <v>44625</v>
+      </c>
+      <c r="D76" s="2">
+        <v>44348</v>
+      </c>
+      <c r="E76" t="s">
+        <v>11</v>
+      </c>
+      <c r="F76" t="s">
+        <v>15</v>
+      </c>
+      <c r="G76">
+        <v>164.9</v>
+      </c>
+      <c r="H76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>99</v>
+      </c>
+      <c r="K76" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>29</v>
+      </c>
+      <c r="B77" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C77" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D77" s="2">
+        <v>44382</v>
+      </c>
+      <c r="E77" t="s">
+        <v>11</v>
+      </c>
+      <c r="F77" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77">
+        <v>2200</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>22</v>
+      </c>
+      <c r="J77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>29</v>
+      </c>
+      <c r="B78" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C78" s="2">
+        <v>44413</v>
+      </c>
+      <c r="D78" s="2">
+        <v>44413</v>
+      </c>
+      <c r="E78" t="s">
+        <v>11</v>
+      </c>
+      <c r="F78" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78">
+        <v>2200</v>
+      </c>
+      <c r="H78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>22</v>
+      </c>
+      <c r="J78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>29</v>
+      </c>
+      <c r="B79" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C79" s="2">
+        <v>44444</v>
+      </c>
+      <c r="D79" s="2">
+        <v>44444</v>
+      </c>
+      <c r="E79" t="s">
+        <v>11</v>
+      </c>
+      <c r="F79" t="s">
+        <v>17</v>
+      </c>
+      <c r="G79">
+        <v>2200</v>
+      </c>
+      <c r="H79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>22</v>
+      </c>
+      <c r="J79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>29</v>
+      </c>
+      <c r="B80" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C80" s="2">
+        <v>44474</v>
+      </c>
+      <c r="D80" s="2">
+        <v>44474</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
+      </c>
+      <c r="F80" t="s">
+        <v>17</v>
+      </c>
+      <c r="G80">
+        <v>2200</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>22</v>
+      </c>
+      <c r="J80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81">
+        <v>29</v>
+      </c>
+      <c r="B81" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44505</v>
+      </c>
+      <c r="D81" s="2">
+        <v>44505</v>
+      </c>
+      <c r="E81" t="s">
+        <v>11</v>
+      </c>
+      <c r="F81" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81">
+        <v>2200</v>
+      </c>
+      <c r="H81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>22</v>
+      </c>
+      <c r="J81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82">
+        <v>29</v>
+      </c>
+      <c r="B82" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C82" s="2">
+        <v>44535</v>
+      </c>
+      <c r="D82" s="2">
+        <v>44535</v>
+      </c>
+      <c r="E82" t="s">
+        <v>11</v>
+      </c>
+      <c r="F82" t="s">
+        <v>17</v>
+      </c>
+      <c r="G82">
+        <v>2200</v>
+      </c>
+      <c r="H82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>22</v>
+      </c>
+      <c r="J82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83">
+        <v>29</v>
+      </c>
+      <c r="B83" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C83" s="2">
+        <v>44566</v>
+      </c>
+      <c r="D83" s="2">
+        <v>44566</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
+      </c>
+      <c r="F83" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83">
+        <v>2200</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>22</v>
+      </c>
+      <c r="J83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84">
+        <v>29</v>
+      </c>
+      <c r="B84" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C84" s="2">
+        <v>44597</v>
+      </c>
+      <c r="D84" s="2">
+        <v>44597</v>
+      </c>
+      <c r="E84" t="s">
+        <v>11</v>
+      </c>
+      <c r="F84" t="s">
+        <v>17</v>
+      </c>
+      <c r="G84">
+        <v>2200</v>
+      </c>
+      <c r="H84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>22</v>
+      </c>
+      <c r="J84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85">
+        <v>29</v>
+      </c>
+      <c r="B85" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C85" s="2">
+        <v>44625</v>
+      </c>
+      <c r="D85" s="2">
+        <v>44625</v>
+      </c>
+      <c r="E85" t="s">
+        <v>11</v>
+      </c>
+      <c r="F85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85">
+        <v>2200</v>
+      </c>
+      <c r="H85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>22</v>
+      </c>
+      <c r="J85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86">
+        <v>29</v>
+      </c>
+      <c r="B86" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C86" s="2">
+        <v>44656</v>
+      </c>
+      <c r="D86" s="2">
+        <v>44656</v>
+      </c>
+      <c r="E86" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" t="s">
+        <v>17</v>
+      </c>
+      <c r="G86">
+        <v>2200</v>
+      </c>
+      <c r="H86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>22</v>
+      </c>
+      <c r="J86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87">
+        <v>29</v>
+      </c>
+      <c r="B87" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C87" s="2">
+        <v>44686</v>
+      </c>
+      <c r="D87" s="2">
+        <v>44686</v>
+      </c>
+      <c r="E87" t="s">
+        <v>11</v>
+      </c>
+      <c r="F87" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87">
+        <v>2200</v>
+      </c>
+      <c r="H87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>22</v>
+      </c>
+      <c r="J87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88">
+        <v>29</v>
+      </c>
+      <c r="B88" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C88" s="2">
+        <v>44717</v>
+      </c>
+      <c r="D88" s="2">
+        <v>44717</v>
+      </c>
+      <c r="E88" t="s">
+        <v>11</v>
+      </c>
+      <c r="F88" t="s">
+        <v>17</v>
+      </c>
+      <c r="G88">
+        <v>2200</v>
+      </c>
+      <c r="H88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>22</v>
+      </c>
+      <c r="J88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89">
+        <v>29</v>
+      </c>
+      <c r="B89" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C89" s="2">
+        <v>44747</v>
+      </c>
+      <c r="D89" s="2">
+        <v>44747</v>
+      </c>
+      <c r="E89" t="s">
+        <v>11</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89">
+        <v>2200</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>22</v>
+      </c>
+      <c r="J89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90">
+        <v>29</v>
+      </c>
+      <c r="B90" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44778</v>
+      </c>
+      <c r="D90" s="2">
+        <v>44778</v>
+      </c>
+      <c r="E90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F90" t="s">
+        <v>17</v>
+      </c>
+      <c r="G90">
+        <v>2200</v>
+      </c>
+      <c r="H90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>22</v>
+      </c>
+      <c r="J90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91">
+        <v>29</v>
+      </c>
+      <c r="B91" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44809</v>
+      </c>
+      <c r="D91" s="2">
+        <v>44809</v>
+      </c>
+      <c r="E91" t="s">
+        <v>11</v>
+      </c>
+      <c r="F91" t="s">
+        <v>17</v>
+      </c>
+      <c r="G91">
+        <v>2200</v>
+      </c>
+      <c r="H91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>22</v>
+      </c>
+      <c r="J91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92">
+        <v>29</v>
+      </c>
+      <c r="B92" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44839</v>
+      </c>
+      <c r="D92" s="2">
+        <v>44839</v>
+      </c>
+      <c r="E92" t="s">
+        <v>11</v>
+      </c>
+      <c r="F92" t="s">
+        <v>17</v>
+      </c>
+      <c r="G92">
+        <v>2200</v>
+      </c>
+      <c r="H92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>22</v>
+      </c>
+      <c r="J92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93">
+        <v>29</v>
+      </c>
+      <c r="B93" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44870</v>
+      </c>
+      <c r="D93" s="2">
+        <v>44870</v>
+      </c>
+      <c r="E93" t="s">
+        <v>11</v>
+      </c>
+      <c r="F93" t="s">
+        <v>17</v>
+      </c>
+      <c r="G93">
+        <v>2200</v>
+      </c>
+      <c r="H93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>22</v>
+      </c>
+      <c r="J93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94">
+        <v>29</v>
+      </c>
+      <c r="B94" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44900</v>
+      </c>
+      <c r="D94" s="2">
+        <v>44900</v>
+      </c>
+      <c r="E94" t="s">
+        <v>11</v>
+      </c>
+      <c r="F94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G94">
+        <v>2200</v>
+      </c>
+      <c r="H94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>22</v>
+      </c>
+      <c r="J94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95">
+        <v>29</v>
+      </c>
+      <c r="B95" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44931</v>
+      </c>
+      <c r="D95" s="2">
+        <v>44931</v>
+      </c>
+      <c r="E95" t="s">
+        <v>11</v>
+      </c>
+      <c r="F95" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95">
+        <v>2200</v>
+      </c>
+      <c r="H95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>22</v>
+      </c>
+      <c r="J95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96">
+        <v>29</v>
+      </c>
+      <c r="B96" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44962</v>
+      </c>
+      <c r="D96" s="2">
+        <v>44962</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96">
+        <v>2200</v>
+      </c>
+      <c r="H96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>22</v>
+      </c>
+      <c r="J96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97">
+        <v>29</v>
+      </c>
+      <c r="B97" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44990</v>
+      </c>
+      <c r="D97" s="2">
+        <v>44990</v>
+      </c>
+      <c r="E97" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" t="s">
+        <v>17</v>
+      </c>
+      <c r="G97">
+        <v>2200</v>
+      </c>
+      <c r="H97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>22</v>
+      </c>
+      <c r="J97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98">
+        <v>29</v>
+      </c>
+      <c r="B98" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C98" s="2">
+        <v>45021</v>
+      </c>
+      <c r="D98" s="2">
+        <v>45021</v>
+      </c>
+      <c r="E98" t="s">
+        <v>11</v>
+      </c>
+      <c r="F98" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98">
+        <v>2200</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>22</v>
+      </c>
+      <c r="J98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99">
+        <v>29</v>
+      </c>
+      <c r="B99" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C99" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D99" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E99" t="s">
+        <v>11</v>
+      </c>
+      <c r="F99" t="s">
+        <v>17</v>
+      </c>
+      <c r="G99">
+        <v>2200</v>
+      </c>
+      <c r="H99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
+        <v>22</v>
+      </c>
+      <c r="J99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100">
+        <v>29</v>
+      </c>
+      <c r="B100" s="2">
+        <v>44366</v>
+      </c>
+      <c r="C100" s="2">
+        <v>45082</v>
+      </c>
+      <c r="D100" s="2">
+        <v>45082</v>
+      </c>
+      <c r="E100" t="s">
+        <v>11</v>
+      </c>
+      <c r="F100" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100">
+        <v>2200</v>
+      </c>
+      <c r="H100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
+        <v>22</v>
+      </c>
+      <c r="J100" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/data.xlsx
+++ b/sheets/data.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\financial_history\sheets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669A6B7-8E93-42CD-BF62-7CA2A58A2C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -76,9 +82,6 @@
     <t>Toro</t>
   </si>
   <si>
-    <t>Outros</t>
-  </si>
-  <si>
     <t>Vale</t>
   </si>
   <si>
@@ -425,16 +428,22 @@
   </si>
   <si>
     <t>9/9</t>
+  </si>
+  <si>
+    <t>Vendas</t>
+  </si>
+  <si>
+    <t>Lazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -498,11 +507,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -544,7 +561,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -576,9 +593,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -610,6 +645,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -785,14 +838,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -827,7 +895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -853,13 +921,13 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -885,13 +953,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -917,13 +985,13 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -943,7 +1011,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>-933.1799999999999</v>
+        <v>-933.18</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -952,10 +1020,10 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -975,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>933.1799999999999</v>
+        <v>933.18</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -984,10 +1052,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1013,13 +1081,13 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1045,13 +1113,13 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1071,19 +1139,19 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>326.47</v>
+        <v>326.47000000000003</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>20</v>
+        <v>136</v>
       </c>
       <c r="J9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1112,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1144,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1173,13 +1241,13 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1205,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1237,13 +1305,13 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1269,13 +1337,13 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1301,13 +1369,13 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1333,13 +1401,13 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>20</v>
+        <v>137</v>
       </c>
       <c r="J17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1365,16 +1433,16 @@
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1400,16 +1468,16 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K19" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1435,16 +1503,16 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K20" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1470,16 +1538,16 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K21" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1505,16 +1573,16 @@
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K22" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1540,16 +1608,16 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1575,16 +1643,16 @@
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1610,16 +1678,16 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K25" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1645,16 +1713,16 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J26" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K26" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1680,16 +1748,16 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K27" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1715,16 +1783,16 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J28" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>18</v>
       </c>
@@ -1750,16 +1818,16 @@
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>19</v>
       </c>
@@ -1785,16 +1853,16 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>19</v>
       </c>
@@ -1820,16 +1888,16 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K31" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1855,16 +1923,16 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1890,13 +1958,13 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>23</v>
       </c>
@@ -1922,13 +1990,13 @@
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>24</v>
       </c>
@@ -1954,16 +2022,16 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>24</v>
       </c>
@@ -1989,16 +2057,16 @@
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K36" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>24</v>
       </c>
@@ -2024,16 +2092,16 @@
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>24</v>
       </c>
@@ -2059,16 +2127,16 @@
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J38" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K38" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2094,16 +2162,16 @@
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J39" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K39" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>24</v>
       </c>
@@ -2129,16 +2197,16 @@
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J40" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>25</v>
       </c>
@@ -2158,22 +2226,22 @@
         <v>15</v>
       </c>
       <c r="G41">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K41" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>25</v>
       </c>
@@ -2193,22 +2261,22 @@
         <v>15</v>
       </c>
       <c r="G42">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>25</v>
       </c>
@@ -2228,22 +2296,22 @@
         <v>15</v>
       </c>
       <c r="G43">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J43" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K43" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>25</v>
       </c>
@@ -2263,22 +2331,22 @@
         <v>15</v>
       </c>
       <c r="G44">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J44" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>25</v>
       </c>
@@ -2298,22 +2366,22 @@
         <v>15</v>
       </c>
       <c r="G45">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>25</v>
       </c>
@@ -2333,22 +2401,22 @@
         <v>15</v>
       </c>
       <c r="G46">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>25</v>
       </c>
@@ -2368,22 +2436,22 @@
         <v>15</v>
       </c>
       <c r="G47">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J47" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>25</v>
       </c>
@@ -2403,22 +2471,22 @@
         <v>15</v>
       </c>
       <c r="G48">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J48" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K48" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -2438,22 +2506,22 @@
         <v>15</v>
       </c>
       <c r="G49">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J49" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K49" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>25</v>
       </c>
@@ -2473,22 +2541,22 @@
         <v>15</v>
       </c>
       <c r="G50">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K50" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25</v>
       </c>
@@ -2508,22 +2576,22 @@
         <v>15</v>
       </c>
       <c r="G51">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>25</v>
       </c>
@@ -2543,22 +2611,22 @@
         <v>15</v>
       </c>
       <c r="G52">
-        <v>-20.48166666666667</v>
+        <v>-20.481666666666669</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K52" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -2587,10 +2655,10 @@
         <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -2616,13 +2684,13 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J54" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -2648,13 +2716,13 @@
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J55" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>26</v>
       </c>
@@ -2680,13 +2748,13 @@
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>26</v>
       </c>
@@ -2712,13 +2780,13 @@
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J57" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2744,13 +2812,13 @@
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J58" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -2776,16 +2844,16 @@
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J59" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K59" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>27</v>
       </c>
@@ -2811,16 +2879,16 @@
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K60" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>27</v>
       </c>
@@ -2846,16 +2914,16 @@
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>27</v>
       </c>
@@ -2881,16 +2949,16 @@
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K62" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>27</v>
       </c>
@@ -2916,16 +2984,16 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J63" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>27</v>
       </c>
@@ -2951,16 +3019,16 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K64" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>27</v>
       </c>
@@ -2986,16 +3054,16 @@
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K65" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>27</v>
       </c>
@@ -3021,16 +3089,16 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K66" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>27</v>
       </c>
@@ -3056,16 +3124,16 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J67" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>28</v>
       </c>
@@ -3091,16 +3159,16 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>28</v>
       </c>
@@ -3126,16 +3194,16 @@
         <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J69" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K69" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>28</v>
       </c>
@@ -3161,16 +3229,16 @@
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K70" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>28</v>
       </c>
@@ -3196,16 +3264,16 @@
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J71" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>28</v>
       </c>
@@ -3231,16 +3299,16 @@
         <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J72" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>28</v>
       </c>
@@ -3266,16 +3334,16 @@
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J73" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>28</v>
       </c>
@@ -3301,16 +3369,16 @@
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K74" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>28</v>
       </c>
@@ -3336,16 +3404,16 @@
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K75" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>28</v>
       </c>
@@ -3371,16 +3439,16 @@
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K76" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>29</v>
       </c>
@@ -3406,13 +3474,13 @@
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J77" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>29</v>
       </c>
@@ -3438,13 +3506,13 @@
         <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>29</v>
       </c>
@@ -3470,13 +3538,13 @@
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J79" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>29</v>
       </c>
@@ -3502,13 +3570,13 @@
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J80" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>29</v>
       </c>
@@ -3534,13 +3602,13 @@
         <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J81" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>29</v>
       </c>
@@ -3566,13 +3634,13 @@
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>29</v>
       </c>
@@ -3598,13 +3666,13 @@
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>29</v>
       </c>
@@ -3630,13 +3698,13 @@
         <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J84" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29</v>
       </c>
@@ -3662,13 +3730,13 @@
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J85" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>29</v>
       </c>
@@ -3694,13 +3762,13 @@
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J86" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>29</v>
       </c>
@@ -3726,13 +3794,13 @@
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J87" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>29</v>
       </c>
@@ -3758,13 +3826,13 @@
         <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>29</v>
       </c>
@@ -3790,13 +3858,13 @@
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>29</v>
       </c>
@@ -3822,13 +3890,13 @@
         <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J90" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>29</v>
       </c>
@@ -3854,13 +3922,13 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J91" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>29</v>
       </c>
@@ -3886,13 +3954,13 @@
         <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J92" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>29</v>
       </c>
@@ -3918,13 +3986,13 @@
         <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J93" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>29</v>
       </c>
@@ -3950,13 +4018,13 @@
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J94" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>29</v>
       </c>
@@ -3982,13 +4050,13 @@
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J95" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>29</v>
       </c>
@@ -4014,13 +4082,13 @@
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>29</v>
       </c>
@@ -4046,13 +4114,13 @@
         <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J97" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>29</v>
       </c>
@@ -4078,13 +4146,13 @@
         <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J98" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>29</v>
       </c>
@@ -4110,13 +4178,13 @@
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J99" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>29</v>
       </c>
@@ -4142,10 +4210,10 @@
         <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/sheets/data.xlsx
+++ b/sheets/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1998a\Documents\GitHub\financial_history\sheets\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8669A6B7-8E93-42CD-BF62-7CA2A58A2C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="140">
   <si>
     <t>ID</t>
   </si>
@@ -82,10 +76,16 @@
     <t>Toro</t>
   </si>
   <si>
+    <t>Trabalho</t>
+  </si>
+  <si>
+    <t>Repasse</t>
+  </si>
+  <si>
     <t>Vale</t>
   </si>
   <si>
-    <t>Trabalho</t>
+    <t>Vendas</t>
   </si>
   <si>
     <t>Alimentação</t>
@@ -94,7 +94,7 @@
     <t>Presentes</t>
   </si>
   <si>
-    <t>Repasse</t>
+    <t>Lazer</t>
   </si>
   <si>
     <t>Saúde</t>
@@ -322,6 +322,12 @@
     <t>Salário Nelo</t>
   </si>
   <si>
+    <t>BeamNG.drive! Talvez o preço não esteja certo.</t>
+  </si>
+  <si>
+    <t>Bolinho de pote + vidrinho (com desconto do Rappi).</t>
+  </si>
+  <si>
     <t>1/6</t>
   </si>
   <si>
@@ -428,22 +434,16 @@
   </si>
   <si>
     <t>9/9</t>
-  </si>
-  <si>
-    <t>Vendas</t>
-  </si>
-  <si>
-    <t>Lazer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -507,19 +507,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -561,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -593,27 +585,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -645,24 +619,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -838,29 +794,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K100"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="53" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -895,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>0</v>
       </c>
@@ -921,13 +862,13 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>1</v>
       </c>
@@ -953,13 +894,13 @@
         <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>2</v>
       </c>
@@ -985,13 +926,13 @@
         <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1011,7 +952,7 @@
         <v>14</v>
       </c>
       <c r="G5">
-        <v>-933.18</v>
+        <v>-933.1799999999999</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -1020,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1043,7 +984,7 @@
         <v>14</v>
       </c>
       <c r="G6">
-        <v>933.18</v>
+        <v>933.1799999999999</v>
       </c>
       <c r="H6" t="s">
         <v>19</v>
@@ -1052,10 +993,10 @@
         <v>12</v>
       </c>
       <c r="J6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1081,13 +1022,13 @@
         <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1113,13 +1054,13 @@
         <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1139,19 +1080,19 @@
         <v>14</v>
       </c>
       <c r="G9">
-        <v>326.47000000000003</v>
+        <v>326.47</v>
       </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
       <c r="I9" t="s">
-        <v>136</v>
+        <v>23</v>
       </c>
       <c r="J9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1180,10 +1121,10 @@
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>7</v>
       </c>
@@ -1212,10 +1153,10 @@
         <v>12</v>
       </c>
       <c r="J11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>8</v>
       </c>
@@ -1241,13 +1182,13 @@
         <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>9</v>
       </c>
@@ -1273,13 +1214,13 @@
         <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>10</v>
       </c>
@@ -1305,13 +1246,13 @@
         <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>11</v>
       </c>
@@ -1337,13 +1278,13 @@
         <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>12</v>
       </c>
@@ -1369,13 +1310,13 @@
         <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>13</v>
       </c>
@@ -1401,13 +1342,13 @@
         <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>137</v>
+        <v>26</v>
       </c>
       <c r="J17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1433,16 +1374,16 @@
         <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1468,16 +1409,16 @@
         <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1503,16 +1444,16 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K20" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>17</v>
       </c>
@@ -1538,16 +1479,16 @@
         <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>17</v>
       </c>
@@ -1573,16 +1514,16 @@
         <v>18</v>
       </c>
       <c r="I22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J22" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K22" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>17</v>
       </c>
@@ -1608,16 +1549,16 @@
         <v>18</v>
       </c>
       <c r="I23" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>18</v>
       </c>
@@ -1643,16 +1584,16 @@
         <v>18</v>
       </c>
       <c r="I24" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K24" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>18</v>
       </c>
@@ -1678,16 +1619,16 @@
         <v>18</v>
       </c>
       <c r="I25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>18</v>
       </c>
@@ -1713,16 +1654,16 @@
         <v>18</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>18</v>
       </c>
@@ -1748,16 +1689,16 @@
         <v>18</v>
       </c>
       <c r="I27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>18</v>
       </c>
@@ -1783,16 +1724,16 @@
         <v>18</v>
       </c>
       <c r="I28" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>18</v>
       </c>
@@ -1818,16 +1759,16 @@
         <v>18</v>
       </c>
       <c r="I29" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>19</v>
       </c>
@@ -1853,16 +1794,16 @@
         <v>18</v>
       </c>
       <c r="I30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J30" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>19</v>
       </c>
@@ -1888,16 +1829,16 @@
         <v>18</v>
       </c>
       <c r="I31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J31" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K31" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>19</v>
       </c>
@@ -1923,16 +1864,16 @@
         <v>18</v>
       </c>
       <c r="I32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K32" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1958,13 +1899,13 @@
         <v>18</v>
       </c>
       <c r="I33" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J33" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>23</v>
       </c>
@@ -1990,13 +1931,13 @@
         <v>18</v>
       </c>
       <c r="I34" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J34" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>24</v>
       </c>
@@ -2022,16 +1963,16 @@
         <v>18</v>
       </c>
       <c r="I35" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K35" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>24</v>
       </c>
@@ -2057,16 +1998,16 @@
         <v>18</v>
       </c>
       <c r="I36" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>24</v>
       </c>
@@ -2092,16 +2033,16 @@
         <v>18</v>
       </c>
       <c r="I37" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J37" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>24</v>
       </c>
@@ -2127,16 +2068,16 @@
         <v>18</v>
       </c>
       <c r="I38" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J38" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>24</v>
       </c>
@@ -2162,16 +2103,16 @@
         <v>18</v>
       </c>
       <c r="I39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J39" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K39" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>24</v>
       </c>
@@ -2197,16 +2138,16 @@
         <v>18</v>
       </c>
       <c r="I40" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J40" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K40" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41">
         <v>25</v>
       </c>
@@ -2226,22 +2167,22 @@
         <v>15</v>
       </c>
       <c r="G41">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J41" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42">
         <v>25</v>
       </c>
@@ -2261,22 +2202,22 @@
         <v>15</v>
       </c>
       <c r="G42">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J42" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43">
         <v>25</v>
       </c>
@@ -2296,22 +2237,22 @@
         <v>15</v>
       </c>
       <c r="G43">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J43" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K43" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44">
         <v>25</v>
       </c>
@@ -2331,22 +2272,22 @@
         <v>15</v>
       </c>
       <c r="G44">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J44" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45">
         <v>25</v>
       </c>
@@ -2366,22 +2307,22 @@
         <v>15</v>
       </c>
       <c r="G45">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J45" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46">
         <v>25</v>
       </c>
@@ -2401,22 +2342,22 @@
         <v>15</v>
       </c>
       <c r="G46">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47">
         <v>25</v>
       </c>
@@ -2436,22 +2377,22 @@
         <v>15</v>
       </c>
       <c r="G47">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J47" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48">
         <v>25</v>
       </c>
@@ -2471,22 +2412,22 @@
         <v>15</v>
       </c>
       <c r="G48">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J48" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K48" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>25</v>
       </c>
@@ -2506,22 +2447,22 @@
         <v>15</v>
       </c>
       <c r="G49">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J49" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K49" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>25</v>
       </c>
@@ -2541,22 +2482,22 @@
         <v>15</v>
       </c>
       <c r="G50">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H50" t="s">
         <v>18</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J50" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51">
         <v>25</v>
       </c>
@@ -2576,22 +2517,22 @@
         <v>15</v>
       </c>
       <c r="G51">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J51" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52">
         <v>25</v>
       </c>
@@ -2611,22 +2552,22 @@
         <v>15</v>
       </c>
       <c r="G52">
-        <v>-20.481666666666669</v>
+        <v>-20.48166666666667</v>
       </c>
       <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J52" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53">
         <v>26</v>
       </c>
@@ -2655,10 +2596,10 @@
         <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54">
         <v>26</v>
       </c>
@@ -2684,13 +2625,13 @@
         <v>18</v>
       </c>
       <c r="I54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J54" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55">
         <v>26</v>
       </c>
@@ -2716,13 +2657,13 @@
         <v>18</v>
       </c>
       <c r="I55" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J55" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56">
         <v>26</v>
       </c>
@@ -2748,13 +2689,13 @@
         <v>18</v>
       </c>
       <c r="I56" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J56" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57">
         <v>26</v>
       </c>
@@ -2780,13 +2721,13 @@
         <v>18</v>
       </c>
       <c r="I57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J57" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58">
         <v>26</v>
       </c>
@@ -2812,13 +2753,13 @@
         <v>18</v>
       </c>
       <c r="I58" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59">
         <v>27</v>
       </c>
@@ -2844,16 +2785,16 @@
         <v>18</v>
       </c>
       <c r="I59" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J59" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="K59" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60">
         <v>27</v>
       </c>
@@ -2879,16 +2820,16 @@
         <v>18</v>
       </c>
       <c r="I60" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J60" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K60" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61">
         <v>27</v>
       </c>
@@ -2914,16 +2855,16 @@
         <v>18</v>
       </c>
       <c r="I61" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J61" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K61" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62">
         <v>27</v>
       </c>
@@ -2949,16 +2890,16 @@
         <v>18</v>
       </c>
       <c r="I62" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J62" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="K62" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63">
         <v>27</v>
       </c>
@@ -2984,16 +2925,16 @@
         <v>18</v>
       </c>
       <c r="I63" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K63" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64">
         <v>27</v>
       </c>
@@ -3019,16 +2960,16 @@
         <v>18</v>
       </c>
       <c r="I64" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J64" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65">
         <v>27</v>
       </c>
@@ -3054,16 +2995,16 @@
         <v>18</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K65" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66">
         <v>27</v>
       </c>
@@ -3089,16 +3030,16 @@
         <v>18</v>
       </c>
       <c r="I66" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J66" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67">
         <v>27</v>
       </c>
@@ -3124,16 +3065,16 @@
         <v>18</v>
       </c>
       <c r="I67" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K67" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68">
         <v>28</v>
       </c>
@@ -3159,16 +3100,16 @@
         <v>18</v>
       </c>
       <c r="I68" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J68" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K68" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69">
         <v>28</v>
       </c>
@@ -3194,16 +3135,16 @@
         <v>18</v>
       </c>
       <c r="I69" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J69" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K69" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70">
         <v>28</v>
       </c>
@@ -3229,16 +3170,16 @@
         <v>18</v>
       </c>
       <c r="I70" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J70" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71">
         <v>28</v>
       </c>
@@ -3264,16 +3205,16 @@
         <v>18</v>
       </c>
       <c r="I71" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J71" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K71" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72">
         <v>28</v>
       </c>
@@ -3299,16 +3240,16 @@
         <v>18</v>
       </c>
       <c r="I72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K72" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73">
         <v>28</v>
       </c>
@@ -3334,16 +3275,16 @@
         <v>18</v>
       </c>
       <c r="I73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J73" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K73" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74">
         <v>28</v>
       </c>
@@ -3369,16 +3310,16 @@
         <v>18</v>
       </c>
       <c r="I74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J74" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75">
         <v>28</v>
       </c>
@@ -3404,16 +3345,16 @@
         <v>18</v>
       </c>
       <c r="I75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J75" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76">
         <v>28</v>
       </c>
@@ -3439,16 +3380,16 @@
         <v>18</v>
       </c>
       <c r="I76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="J76" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77">
         <v>29</v>
       </c>
@@ -3474,13 +3415,13 @@
         <v>18</v>
       </c>
       <c r="I77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78">
         <v>29</v>
       </c>
@@ -3506,13 +3447,13 @@
         <v>18</v>
       </c>
       <c r="I78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79">
         <v>29</v>
       </c>
@@ -3538,13 +3479,13 @@
         <v>18</v>
       </c>
       <c r="I79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80">
         <v>29</v>
       </c>
@@ -3570,13 +3511,13 @@
         <v>18</v>
       </c>
       <c r="I80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81">
         <v>29</v>
       </c>
@@ -3602,13 +3543,13 @@
         <v>18</v>
       </c>
       <c r="I81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82">
         <v>29</v>
       </c>
@@ -3634,13 +3575,13 @@
         <v>18</v>
       </c>
       <c r="I82" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83">
         <v>29</v>
       </c>
@@ -3666,13 +3607,13 @@
         <v>18</v>
       </c>
       <c r="I83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84">
         <v>29</v>
       </c>
@@ -3698,13 +3639,13 @@
         <v>18</v>
       </c>
       <c r="I84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85">
         <v>29</v>
       </c>
@@ -3730,13 +3671,13 @@
         <v>18</v>
       </c>
       <c r="I85" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86">
         <v>29</v>
       </c>
@@ -3762,13 +3703,13 @@
         <v>18</v>
       </c>
       <c r="I86" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J86" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87">
         <v>29</v>
       </c>
@@ -3794,13 +3735,13 @@
         <v>18</v>
       </c>
       <c r="I87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88">
         <v>29</v>
       </c>
@@ -3826,13 +3767,13 @@
         <v>18</v>
       </c>
       <c r="I88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89">
         <v>29</v>
       </c>
@@ -3858,13 +3799,13 @@
         <v>18</v>
       </c>
       <c r="I89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J89" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90">
         <v>29</v>
       </c>
@@ -3890,13 +3831,13 @@
         <v>18</v>
       </c>
       <c r="I90" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J90" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91">
         <v>29</v>
       </c>
@@ -3922,13 +3863,13 @@
         <v>18</v>
       </c>
       <c r="I91" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J91" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92">
         <v>29</v>
       </c>
@@ -3954,13 +3895,13 @@
         <v>18</v>
       </c>
       <c r="I92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J92" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93">
         <v>29</v>
       </c>
@@ -3986,13 +3927,13 @@
         <v>18</v>
       </c>
       <c r="I93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J93" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94">
         <v>29</v>
       </c>
@@ -4018,13 +3959,13 @@
         <v>18</v>
       </c>
       <c r="I94" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95">
         <v>29</v>
       </c>
@@ -4050,13 +3991,13 @@
         <v>18</v>
       </c>
       <c r="I95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96">
         <v>29</v>
       </c>
@@ -4082,13 +4023,13 @@
         <v>18</v>
       </c>
       <c r="I96" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J96" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97">
         <v>29</v>
       </c>
@@ -4114,13 +4055,13 @@
         <v>18</v>
       </c>
       <c r="I97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J97" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98">
         <v>29</v>
       </c>
@@ -4146,13 +4087,13 @@
         <v>18</v>
       </c>
       <c r="I98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J98" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99">
         <v>29</v>
       </c>
@@ -4178,13 +4119,13 @@
         <v>18</v>
       </c>
       <c r="I99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J99" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100">
         <v>29</v>
       </c>
@@ -4210,10 +4151,74 @@
         <v>18</v>
       </c>
       <c r="I100" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J100" t="s">
-        <v>99</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101">
+        <v>30</v>
+      </c>
+      <c r="B101" s="2">
+        <v>44367</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D101" s="2">
+        <v>44367</v>
+      </c>
+      <c r="E101" t="s">
+        <v>13</v>
+      </c>
+      <c r="F101" t="s">
+        <v>14</v>
+      </c>
+      <c r="G101">
+        <v>-52.54</v>
+      </c>
+      <c r="H101" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" t="s">
+        <v>26</v>
+      </c>
+      <c r="J101" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102">
+        <v>31</v>
+      </c>
+      <c r="B102" s="2">
+        <v>44367</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44382</v>
+      </c>
+      <c r="D102" s="2">
+        <v>44367</v>
+      </c>
+      <c r="E102" t="s">
+        <v>13</v>
+      </c>
+      <c r="F102" t="s">
+        <v>14</v>
+      </c>
+      <c r="G102">
+        <v>-7.2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>18</v>
+      </c>
+      <c r="I102" t="s">
+        <v>24</v>
+      </c>
+      <c r="J102" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
